--- a/Source_Files/RMI_-_Accounting_Part_Time_Workers.xlsx
+++ b/Source_Files/RMI_-_Accounting_Part_Time_Workers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jwendt\Documents\Python_Projects\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11A0F7D3-C471-4967-BE91-3494ED2D627B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDA41B9-53B3-4105-B481-8CBF2B300FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
   <si>
     <t>Worker</t>
   </si>
@@ -106,6 +106,12 @@
     <t>Sahithi Pingali</t>
   </si>
   <si>
+    <t>Rachel Golden</t>
+  </si>
+  <si>
+    <t>Senior Principal</t>
+  </si>
+  <si>
     <t>Eleanor White | Ellie White</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
   </si>
   <si>
     <t>Natalia Ratner</t>
+  </si>
+  <si>
+    <t>William Long | Will Long</t>
   </si>
   <si>
     <t>Rhea Cong</t>
@@ -608,7 +617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -852,14 +861,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>44438</v>
+        <v>44424</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G11" s="5">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,62 +876,60 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D12" s="3">
-        <v>45580</v>
-      </c>
-      <c r="E12" s="3">
-        <v>44880</v>
-      </c>
+        <v>44438</v>
+      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="4">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="G12" s="5">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D13" s="3">
-        <v>44697</v>
+        <v>45580</v>
       </c>
       <c r="E13" s="3">
-        <v>44804</v>
+        <v>44880</v>
       </c>
       <c r="F13" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G13" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>44697</v>
       </c>
       <c r="E14" s="3">
-        <v>44932</v>
+        <v>44804</v>
       </c>
       <c r="F14" s="4">
         <v>50</v>
@@ -939,86 +946,86 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D15" s="3">
-        <v>44819</v>
+        <v>44697</v>
       </c>
       <c r="E15" s="3">
-        <v>45352</v>
+        <v>44932</v>
       </c>
       <c r="F15" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G15" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3">
-        <v>44697</v>
+        <v>44819</v>
       </c>
       <c r="E16" s="3">
-        <v>45086</v>
+        <v>45352</v>
       </c>
       <c r="F16" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G16" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D17" s="3">
-        <v>44705</v>
-      </c>
-      <c r="E17" s="3"/>
+        <v>44697</v>
+      </c>
+      <c r="E17" s="3">
+        <v>45086</v>
+      </c>
       <c r="F17" s="4">
-        <v>87.5</v>
+        <v>50</v>
       </c>
       <c r="G17" s="5">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>44810</v>
-      </c>
-      <c r="E18" s="3">
-        <v>44958</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="4">
-        <v>25</v>
+        <v>87.5</v>
       </c>
       <c r="G18" s="5">
-        <v>0.25</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,24 +1036,24 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3">
-        <v>44718</v>
+        <v>44810</v>
       </c>
       <c r="E19" s="3">
-        <v>44862</v>
+        <v>44958</v>
       </c>
       <c r="F19" s="4">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="G19" s="5">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -1055,109 +1062,109 @@
         <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>44733</v>
+        <v>44718</v>
       </c>
       <c r="E20" s="3">
-        <v>45231</v>
+        <v>44862</v>
       </c>
       <c r="F20" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G20" s="5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D21" s="3">
-        <v>44747</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>44733</v>
+      </c>
+      <c r="E21" s="3">
+        <v>45231</v>
+      </c>
       <c r="F21" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G21" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D22" s="3">
-        <v>44775</v>
+        <v>44747</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
+        <v>25</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44775</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="4">
         <v>30</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G23" s="5">
         <v>0.3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3">
-        <v>44768</v>
-      </c>
-      <c r="E23" s="3">
-        <v>44895</v>
-      </c>
-      <c r="F23" s="4">
-        <v>60</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D24" s="3">
-        <v>45222</v>
+        <v>44768</v>
       </c>
       <c r="E24" s="3">
-        <v>45565</v>
+        <v>44895</v>
       </c>
       <c r="F24" s="4">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G24" s="5">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -1166,33 +1173,33 @@
         <v>17</v>
       </c>
       <c r="D25" s="3">
-        <v>45188</v>
+        <v>45222</v>
       </c>
       <c r="E25" s="3">
-        <v>45443</v>
+        <v>45565</v>
       </c>
       <c r="F25" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G25" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3">
-        <v>45278</v>
+        <v>45188</v>
       </c>
       <c r="E26" s="3">
-        <v>45422</v>
+        <v>45443</v>
       </c>
       <c r="F26" s="4">
         <v>50</v>
@@ -1209,59 +1216,59 @@
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3">
-        <v>45567</v>
+        <v>45278</v>
       </c>
       <c r="E27" s="3">
-        <v>45510</v>
+        <v>45422</v>
       </c>
       <c r="F27" s="4">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="G27" s="5">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D28" s="3">
-        <v>45544</v>
+        <v>45567</v>
       </c>
       <c r="E28" s="3">
-        <v>45517</v>
+        <v>45510</v>
       </c>
       <c r="F28" s="4">
-        <v>25</v>
+        <v>37.5</v>
       </c>
       <c r="G28" s="5">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3">
-        <v>45538</v>
+        <v>45544</v>
       </c>
       <c r="E29" s="3">
-        <v>45520</v>
+        <v>45517</v>
       </c>
       <c r="F29" s="4">
         <v>25</v>
@@ -1272,42 +1279,42 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D30" s="3">
-        <v>45544</v>
+        <v>45572</v>
       </c>
       <c r="E30" s="3">
-        <v>45517</v>
+        <v>45538</v>
       </c>
       <c r="F30" s="4">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="G30" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D31" s="3">
-        <v>45558</v>
+        <v>45538</v>
       </c>
       <c r="E31" s="3">
-        <v>45524</v>
+        <v>45520</v>
       </c>
       <c r="F31" s="4">
         <v>25</v>
@@ -1318,24 +1325,70 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45544</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45517</v>
+      </c>
+      <c r="F32" s="4">
+        <v>20</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="3">
+      <c r="B33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="3">
+        <v>45558</v>
+      </c>
+      <c r="E33" s="3">
+        <v>45524</v>
+      </c>
+      <c r="F33" s="4">
+        <v>25</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="3">
         <v>45078</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E34" s="3">
         <v>45427</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F34" s="4">
         <v>50</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G34" s="5">
         <v>0.5</v>
       </c>
     </row>

--- a/Source_Files/RMI_-_Accounting_Part_Time_Workers.xlsx
+++ b/Source_Files/RMI_-_Accounting_Part_Time_Workers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jwendt\Documents\Python_Projects\Source_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDA41B9-53B3-4105-B481-8CBF2B300FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE672B5-C741-420F-B13E-2DE6EABA7E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="1140" windowWidth="14420" windowHeight="8180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RMI - Accounting Part Time Work" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="61">
   <si>
     <t>Worker</t>
   </si>
@@ -106,12 +106,6 @@
     <t>Sahithi Pingali</t>
   </si>
   <si>
-    <t>Rachel Golden</t>
-  </si>
-  <si>
-    <t>Senior Principal</t>
-  </si>
-  <si>
     <t>Eleanor White | Ellie White</t>
   </si>
   <si>
@@ -197,6 +191,9 @@
   </si>
   <si>
     <t>Xizhi Deng</t>
+  </si>
+  <si>
+    <t>Si Wei Adeline Leung | Adeline Leung</t>
   </si>
   <si>
     <t>Francis Elisha [C]</t>
@@ -861,14 +858,14 @@
         <v>12</v>
       </c>
       <c r="D11" s="3">
-        <v>44424</v>
+        <v>44438</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G11" s="5">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -876,60 +873,62 @@
         <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D12" s="3">
-        <v>44438</v>
-      </c>
-      <c r="E12" s="3"/>
+        <v>45615</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44880</v>
+      </c>
       <c r="F12" s="4">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5">
-        <v>0.8</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D13" s="3">
-        <v>45580</v>
+        <v>44697</v>
       </c>
       <c r="E13" s="3">
-        <v>44880</v>
+        <v>44804</v>
       </c>
       <c r="F13" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G13" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D14" s="3">
         <v>44697</v>
       </c>
       <c r="E14" s="3">
-        <v>44804</v>
+        <v>44932</v>
       </c>
       <c r="F14" s="4">
         <v>50</v>
@@ -946,86 +945,86 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3">
-        <v>44697</v>
+        <v>44819</v>
       </c>
       <c r="E15" s="3">
-        <v>44932</v>
+        <v>45352</v>
       </c>
       <c r="F15" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G15" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="3">
-        <v>44819</v>
+        <v>44697</v>
       </c>
       <c r="E16" s="3">
-        <v>45352</v>
+        <v>45086</v>
       </c>
       <c r="F16" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G16" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>44697</v>
-      </c>
-      <c r="E17" s="3">
-        <v>45086</v>
-      </c>
+        <v>44705</v>
+      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="4">
-        <v>50</v>
+        <v>87.5</v>
       </c>
       <c r="G17" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D18" s="3">
-        <v>44705</v>
-      </c>
-      <c r="E18" s="3"/>
+        <v>44810</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44958</v>
+      </c>
       <c r="F18" s="4">
-        <v>87.5</v>
+        <v>25</v>
       </c>
       <c r="G18" s="5">
-        <v>0.875</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1036,24 +1035,24 @@
         <v>19</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D19" s="3">
-        <v>44810</v>
+        <v>44718</v>
       </c>
       <c r="E19" s="3">
-        <v>44958</v>
+        <v>44862</v>
       </c>
       <c r="F19" s="4">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G19" s="5">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
@@ -1062,109 +1061,109 @@
         <v>12</v>
       </c>
       <c r="D20" s="3">
-        <v>44718</v>
+        <v>44733</v>
       </c>
       <c r="E20" s="3">
-        <v>44862</v>
+        <v>45231</v>
       </c>
       <c r="F20" s="4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G20" s="5">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D21" s="3">
-        <v>44733</v>
-      </c>
-      <c r="E21" s="3">
-        <v>45231</v>
-      </c>
+        <v>44747</v>
+      </c>
+      <c r="E21" s="3"/>
       <c r="F21" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G21" s="5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>44747</v>
+        <v>44775</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G22" s="5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
-        <v>44775</v>
-      </c>
-      <c r="E23" s="3"/>
+        <v>44768</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44895</v>
+      </c>
       <c r="F23" s="4">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="G23" s="5">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3">
-        <v>44768</v>
+        <v>45222</v>
       </c>
       <c r="E24" s="3">
-        <v>44895</v>
+        <v>45565</v>
       </c>
       <c r="F24" s="4">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="G24" s="5">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>19</v>
@@ -1173,33 +1172,33 @@
         <v>17</v>
       </c>
       <c r="D25" s="3">
-        <v>45222</v>
+        <v>45188</v>
       </c>
       <c r="E25" s="3">
-        <v>45565</v>
+        <v>45443</v>
       </c>
       <c r="F25" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G25" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D26" s="3">
-        <v>45188</v>
+        <v>45278</v>
       </c>
       <c r="E26" s="3">
-        <v>45443</v>
+        <v>45422</v>
       </c>
       <c r="F26" s="4">
         <v>50</v>
@@ -1216,168 +1215,166 @@
         <v>19</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D27" s="3">
-        <v>45278</v>
+        <v>45567</v>
       </c>
       <c r="E27" s="3">
-        <v>45422</v>
+        <v>45510</v>
       </c>
       <c r="F27" s="4">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="G27" s="5">
-        <v>0.5</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3">
-        <v>45567</v>
+        <v>45544</v>
       </c>
       <c r="E28" s="3">
-        <v>45510</v>
+        <v>45517</v>
       </c>
       <c r="F28" s="4">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="G28" s="5">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>45544</v>
+        <v>45572</v>
       </c>
       <c r="E29" s="3">
-        <v>45517</v>
+        <v>45538</v>
       </c>
       <c r="F29" s="4">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G29" s="5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D30" s="3">
-        <v>45572</v>
+        <v>45538</v>
       </c>
       <c r="E30" s="3">
-        <v>45538</v>
+        <v>45520</v>
       </c>
       <c r="F30" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G30" s="5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D31" s="3">
-        <v>45538</v>
+        <v>45544</v>
       </c>
       <c r="E31" s="3">
-        <v>45520</v>
+        <v>45517</v>
       </c>
       <c r="F31" s="4">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G31" s="5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="3">
+        <v>45558</v>
+      </c>
+      <c r="E32" s="3">
+        <v>45596</v>
+      </c>
+      <c r="F32" s="4">
+        <v>25</v>
+      </c>
+      <c r="G32" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="25" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="3">
-        <v>45544</v>
-      </c>
-      <c r="E32" s="3">
-        <v>45517</v>
-      </c>
-      <c r="F32" s="4">
-        <v>20</v>
-      </c>
-      <c r="G32" s="5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="B33" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D33" s="3">
-        <v>45558</v>
-      </c>
-      <c r="E33" s="3">
-        <v>45524</v>
-      </c>
+        <v>45579</v>
+      </c>
+      <c r="E33" s="3"/>
       <c r="F33" s="4">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G33" s="5">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D34" s="3">
         <v>45078</v>
